--- a/biology/Botanique/Maxburretia/Maxburretia.xlsx
+++ b/biology/Botanique/Maxburretia/Maxburretia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maxburretia est un genre de palmier de la famille des Arécacées. Ce nom de genre honore le botaniste allemand Max Burret (1883,1964). Ce genre contient les espèces suivantes :
 Maxburretia furtadoana              J.Dransf.  (1978)
 Maxburretia gracilis                (Burret) J.Dransf. (1978)
-Maxburretia rupicola                (Ridl.) Furtado (1941) [1]
+Maxburretia rupicola                (Ridl.) Furtado (1941) 
 </t>
         </is>
       </c>
@@ -515,12 +527,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille : Arecaceae
 Sous-famille : Coryphoideae
 Tribu : Trachycarpeae
-Sous-tribu : Rhapidinae[2].
+Sous-tribu : Rhapidinae.
 Le genre Maxburretia partage sa sous-tribu avec cinq autres genres :  Chamaerops, Guihaia, Trachycarpus, Rhapidophyllum, Rhapis.
 </t>
         </is>
